--- a/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
+++ b/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="August 1st (Bangalore) Batch" sheetId="1" r:id="rId1"/>
-    <sheet name="September 18th (Noida) Batch" sheetId="2" r:id="rId2"/>
-    <sheet name="September 23rd Batch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Week</t>
   </si>
@@ -441,186 +439,9 @@
 Conducting Module 3 Test</t>
   </si>
   <si>
-    <t>18 Sep 2019 
-to 
-22 Sep 2019</t>
-  </si>
-  <si>
-    <t>18 Aug - 22 Aug</t>
-  </si>
-  <si>
-    <t>23 Aug - 29 Aug</t>
-  </si>
-  <si>
-    <t>23 Sep 2019 
-to 
-29 Sep 2019</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discover/Induction
- (Addressed by : Mr. Girish CEO of Jspiders  &amp;  Mr. Praveen)
-Core Java Started</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Java Operators
-Assignment Operators
-Relational Operators
-Arithmetic Operators
-Conditional Operator
-Logical Operators
-if and switch Statements
-if-else Branching
-Switch Statements
-Loops
-Using while Loops
-Using do Loops
-Using for Loops
-Using break and continue
-Legal Return Types
-Return Type Declarations
-Returning a Value
-Declare Classes
-Source File Declaration Rules
-Constructor Declarations
-Variable Declarations
-Declare Class Members
-Constructors and Instantiation
-Default Constructor
-Overloaded Constructors
-Inheritance, Is-A,
-Overridden Methods
-Statics
-Static Variables and Methods</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t>Core Java Continuation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Switch Statements
-Loops
-Using while Loops
-Using do Loops
-Using for Loops
-Using break and continue
-Legal Return Types
-Return Type Declarations
-Returning a Value
-Declare Classes
-Source File Declaration Rules
-Constructor Declarations
-Variable Declarations
-Declare Class Members
-Constructors and Instantiation
-Default Constructor
-Overloaded Constructors
-Inheritance, Is-A,
-Overridden Methods
-Statics
-Static Variables and Methods
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Discover/Induction
- (Addressed by : Mr. Girish CEO of Jspiders  &amp;  Mr. Praveen)
-Core Java Started </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Java Operators
-Assignment Operators
-Relational Operators
-Arithmetic Operators
-Conditional Operator
-Logical Operators
-if and switch Statements
-if-else Branching</t>
-    </r>
-  </si>
-  <si>
     <t>30 Sep 2019 
 to 
 06 Oct 2019</t>
-  </si>
-  <si>
-    <t>Continuing Java, SQL and JDBC</t>
-  </si>
-  <si>
-    <t>No Class on Sunday</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL Started</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Introduction
-o The Relational Model
-• Querying Data with the SELECT Statement
-o The SELECT List
-o SELECT List Wildcard (*)
-o The FROM Clause
-o How to Constrain the Result Set
-o DISTINCT and NOT DISTINCT</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -896,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -911,12 +732,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,31 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,43 +750,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1006,27 +767,75 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4994,1564 +4803,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="276225" y="22621875"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 9" descr="Image result for covalense logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1114425" y="3171825"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="3171825"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 9" descr="Image result for covalense logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D428B74-D5C9-774F-A649-26F771A05E1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1114425" y="21974175"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9750DD89-7F3E-894F-9D5A-D6FA80504B45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8BECA-EF93-5D48-B7D2-6C8626A5163B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64609DCB-07D3-6148-9787-02BD5EF01DEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7143BC3E-F055-2D49-BBE8-8FF7B7F4AC18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF90F5E3-8A49-874F-B1E8-1B6D9CEA27C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA98681-87AE-964A-89C9-AEC67FE16B87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E9C0AB-8A28-0548-AD81-7BACB901917D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DE808B-AF02-4B4C-9493-A78D22C44988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="21974175"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 9" descr="Image result for covalense logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1114425" y="1762125"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="1762125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 9" descr="Image result for covalense logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D428B74-D5C9-774F-A649-26F771A05E1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1114425" y="7524750"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9750DD89-7F3E-894F-9D5A-D6FA80504B45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8BECA-EF93-5D48-B7D2-6C8626A5163B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64609DCB-07D3-6148-9787-02BD5EF01DEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7143BC3E-F055-2D49-BBE8-8FF7B7F4AC18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF90F5E3-8A49-874F-B1E8-1B6D9CEA27C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA98681-87AE-964A-89C9-AEC67FE16B87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E9C0AB-8A28-0548-AD81-7BACB901917D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DE808B-AF02-4B4C-9493-A78D22C44988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="7524750"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6839,7 +5090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -6871,167 +5122,167 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="C12" s="36"/>
+      <c r="D12" s="9">
         <f>SUM(D3:D11)</f>
         <v>40</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -7043,17 +5294,17 @@
     </row>
     <row r="14" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -7068,24 +5319,24 @@
       <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -7095,19 +5346,19 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7119,19 +5370,19 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7143,19 +5394,19 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -7165,19 +5416,19 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -7187,19 +5438,19 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -7209,19 +5460,19 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -7231,19 +5482,19 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -7255,25 +5506,32 @@
     </row>
     <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:B17"/>
@@ -7281,268 +5539,11 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
-        <f>SUM(D3:D4)</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="346.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="10">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
-        <f>SUM(D3:D3)</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="342" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
+++ b/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Week</t>
   </si>
@@ -435,13 +435,28 @@
 Forecast</t>
   </si>
   <si>
-    <t>Completing Spring 5.0
-Conducting Module 3 Test</t>
-  </si>
-  <si>
     <t>30 Sep 2019 
 to 
 06 Oct 2019</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>30 Sep - 06 Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Spring 5.0
+</t>
+  </si>
+  <si>
+    <t>Conducting Module 3 Test
+Starting BDD</t>
+  </si>
+  <si>
+    <t>07 Oct 2019 
+to 
+13 Oct 2019</t>
   </si>
 </sst>
 </file>
@@ -768,11 +783,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -807,35 +846,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,13 +875,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -908,13 +923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -956,7 +971,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -999,7 +1014,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1042,7 +1057,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1085,7 +1100,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1128,7 +1143,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1171,7 +1186,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1214,7 +1229,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1257,7 +1272,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1300,7 +1315,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1343,7 +1358,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1386,7 +1401,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1429,7 +1444,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1472,7 +1487,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1515,7 +1530,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1558,7 +1573,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1601,7 +1616,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1644,7 +1659,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1687,7 +1702,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1730,7 +1745,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1773,7 +1788,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1816,7 +1831,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1859,7 +1874,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1902,7 +1917,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1945,7 +1960,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1988,7 +2003,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2031,7 +2046,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2074,7 +2089,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2117,7 +2132,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2160,7 +2175,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2203,7 +2218,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2246,7 +2261,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2289,7 +2304,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2332,7 +2347,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2375,7 +2390,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2418,7 +2433,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2461,7 +2476,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2504,7 +2519,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2547,7 +2562,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2590,7 +2605,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2633,7 +2648,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2676,7 +2691,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2719,7 +2734,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2762,7 +2777,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2805,7 +2820,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2848,7 +2863,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2891,7 +2906,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2934,7 +2949,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2977,7 +2992,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3020,7 +3035,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3063,7 +3078,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3106,7 +3121,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3149,7 +3164,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3192,7 +3207,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3235,7 +3250,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3278,7 +3293,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3321,7 +3336,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3364,7 +3379,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3407,7 +3422,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3450,7 +3465,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3493,7 +3508,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3536,7 +3551,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3579,7 +3594,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3622,7 +3637,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3665,7 +3680,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3708,7 +3723,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3751,7 +3766,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3794,7 +3809,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3837,7 +3852,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3880,7 +3895,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3923,7 +3938,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3966,7 +3981,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4009,7 +4024,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4052,7 +4067,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4095,7 +4110,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4138,7 +4153,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4181,7 +4196,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4224,7 +4239,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4267,7 +4282,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4310,7 +4325,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4353,7 +4368,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4396,7 +4411,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4439,7 +4454,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4482,7 +4497,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4525,7 +4540,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4568,7 +4583,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4611,7 +4626,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4654,7 +4669,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4697,7 +4712,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4740,7 +4755,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4783,7 +4798,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4803,6 +4818,393 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="276225" y="22621875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="AutoShape 9" descr="Image result for covalense logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D428B74-D5C9-774F-A649-26F771A05E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1114425" y="17164050"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9750DD89-7F3E-894F-9D5A-D6FA80504B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8BECA-EF93-5D48-B7D2-6C8626A5163B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64609DCB-07D3-6148-9787-02BD5EF01DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7143BC3E-F055-2D49-BBE8-8FF7B7F4AC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF90F5E3-8A49-874F-B1E8-1B6D9CEA27C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA98681-87AE-964A-89C9-AEC67FE16B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E9C0AB-8A28-0548-AD81-7BACB901917D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DE808B-AF02-4B4C-9493-A78D22C44988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17164050"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5088,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,10 +5524,10 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -5138,10 +5540,10 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -5154,10 +5556,10 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5170,10 +5572,10 @@
       <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -5186,10 +5588,10 @@
       <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -5202,10 +5604,10 @@
       <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5218,10 +5620,10 @@
       <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -5234,10 +5636,10 @@
       <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -5250,12 +5652,12 @@
       <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -5266,284 +5668,317 @@
       <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="9">
-        <f>SUM(D3:D11)</f>
-        <v>40</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="9">
+        <f>SUM(D3:D12)</f>
+        <v>45</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="12"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="13" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="15" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="16" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="16"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="16"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="16"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="16"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
+    <row r="30" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10" t="s">
+    <row r="32" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="16"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="19"/>
+      <c r="C36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
+++ b/1st_August_Batch_Java_Full_Stack/Weekly_Status_Report/JSpiders - HTD - Java Full Stack - Weekly Status Report for Capgemini - Detailed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Week</t>
   </si>
@@ -450,13 +450,31 @@
 </t>
   </si>
   <si>
-    <t>Conducting Module 3 Test
+    <t>07 Oct 2019 
+to 
+13 Oct 2019</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Conducted Module 3 Test
 Starting BDD</t>
   </si>
   <si>
-    <t>07 Oct 2019 
+    <t>Completing BDD
+Conducting Module 4 Test</t>
+  </si>
+  <si>
+    <t>14 Oct 2019 
 to 
-13 Oct 2019</t>
+20 Oct 2019</t>
+  </si>
+  <si>
+    <t>07 Oct - 13 Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Class on Saturday, Monday, Tuesday &amp; Sunday  </t>
   </si>
 </sst>
 </file>
@@ -783,38 +801,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -846,11 +840,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,13 +893,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -923,13 +941,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -971,7 +989,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1014,7 +1032,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1057,7 +1075,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1100,7 +1118,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1143,7 +1161,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1186,7 +1204,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1229,7 +1247,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1272,7 +1290,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1315,7 +1333,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1358,7 +1376,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1401,7 +1419,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1444,7 +1462,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1487,7 +1505,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1530,7 +1548,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1573,7 +1591,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1616,7 +1634,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1659,7 +1677,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1702,7 +1720,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1745,7 +1763,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -1788,7 +1806,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1831,7 +1849,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1874,7 +1892,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1917,7 +1935,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1960,7 +1978,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2003,7 +2021,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2046,7 +2064,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2089,7 +2107,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2132,7 +2150,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2175,7 +2193,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2218,7 +2236,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2261,7 +2279,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2304,7 +2322,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2347,7 +2365,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2390,7 +2408,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2433,7 +2451,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2476,7 +2494,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2519,7 +2537,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2562,7 +2580,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2605,7 +2623,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2648,7 +2666,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2691,7 +2709,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2734,7 +2752,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2777,7 +2795,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2820,7 +2838,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2863,7 +2881,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -2906,7 +2924,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2949,7 +2967,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -2992,7 +3010,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3035,7 +3053,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3078,7 +3096,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3121,7 +3139,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3164,7 +3182,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3207,7 +3225,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3250,7 +3268,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3293,7 +3311,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3336,7 +3354,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3379,7 +3397,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3422,7 +3440,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3465,7 +3483,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3508,7 +3526,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3551,7 +3569,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3594,7 +3612,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3637,7 +3655,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3680,7 +3698,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3723,7 +3741,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -3766,7 +3784,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3809,7 +3827,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3852,7 +3870,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3895,7 +3913,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3938,7 +3956,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3981,7 +3999,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4024,7 +4042,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4067,7 +4085,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4110,7 +4128,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4153,7 +4171,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4196,7 +4214,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4239,7 +4257,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4282,7 +4300,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4325,7 +4343,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4368,7 +4386,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4411,7 +4429,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4454,7 +4472,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4497,7 +4515,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4540,7 +4558,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4583,7 +4601,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4626,7 +4644,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4669,7 +4687,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4712,7 +4730,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4755,7 +4773,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4798,7 +4816,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4841,7 +4859,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4884,7 +4902,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="314325"/>
@@ -4927,7 +4945,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4970,7 +4988,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5013,7 +5031,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5056,7 +5074,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5099,7 +5117,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5142,7 +5160,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5185,7 +5203,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -5205,6 +5223,393 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="276225" y="17164050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="AutoShape 9" descr="Image result for covalense logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D428B74-D5C9-774F-A649-26F771A05E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1114425" y="17945100"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9750DD89-7F3E-894F-9D5A-D6FA80504B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8BECA-EF93-5D48-B7D2-6C8626A5163B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64609DCB-07D3-6148-9787-02BD5EF01DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7143BC3E-F055-2D49-BBE8-8FF7B7F4AC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF90F5E3-8A49-874F-B1E8-1B6D9CEA27C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA98681-87AE-964A-89C9-AEC67FE16B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="AutoShape 11" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E9C0AB-8A28-0548-AD81-7BACB901917D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="AutoShape 12" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAfYAAABbCAMAAAC2wFcKAAAAY1BMVEX///8AjNHv+PwfmtcPk9R/xehvvuXP6fav2/EGj9L5/P6f1O4vodn7/f71+v0FjtIWltXh8frH5vWHyenA4/TX7fg8p9wrn9mTzuxTseBft+KW0OxHrN5zwOa43/Lo9fuo2O9Of94sAAARxUlEQVR4nO1d6ZqiOhBVRFwAxQ0FEXj/p7yyKKeSygKxb09/3fVrxoZQyUlqTzKbGcgrb0ERLfz5k/wkKvJbWZne+aMfTV6dX+cMXYP19rt5+wx5Q6cW383Lv0FeWOw5zDvy8+N3M/gJ+oOd0iX31Zh3FNXxd3PpTH+wI60yE+Yd8OV3M+pKf7APdLADvaHsh5t3f7C/aLvcWKM+nyfr7+bXif5g72kVjQC9oeVP1vB/sHd0H7PUO8p23830dPqDvaE4GA36k9Kfi/sf7E/acrbcJg3u5ergeV51OYePlHHmfy7uf7DPZrtCAnQRnMV43G6dSchnP1W//8E+iyXUi5KHs3qIFsDjf+b1U/QH+ywXRbcm/Cq59j80cPMH+43i6If6x0O64JOfGbf59bAfqcKODsYXEvJC9n8w+XH67bDvFhREi8TqiuL+I8X8b4edOuyB1TtHIuevP9Ga/+WwHwnqueVbIXmr/kL+vop+Oewp4ldYr1tiz//E5f67Ya8JfJ71exWpxfiBybhfDXuMFXP784g3iddXfBmDX0a/GvY1gmdnzvUUEwfA6PT9c/SrYUfN7tuL+IbuCPvpi/j7OvrNsK8coNui8x7xz8SrMCgi/+nu7f0kzZfluJk1nrzzLciiRfPF+eb5ySy4H/kkoR3s1XqZRUljx/hJlC3XYyOS8fGUpwt//3x/UQT3i/mNS/goomTffzG4Ha0L1O15RZ995GKfzZbwMmcM7mqmBjc6iV0v4a8WxkUMs60mf9mWAVvbP0+lb86sYL8s5faipQK6oavvoYjXmTgAi8dK17cyT+YibdKThQodw2uMXI3S7A0dXmw9uIl1eajqrlNabo04WoQNYJb4uBDO2jpvOaNogj2uVTVmKRuVlGDf3hYjXn9StZQx54fMkVdcaPPxmx7SuV+czqwMPYhJPULXGp99DH/wzRINGoaJujbWAUaCJDHAXvOCg2+rIRH2Ut1Ayi3C3VK7PeGqyY+N5RVl/AS7ZqVSVfHJVJdXwKtoYBgDADto+T1RL6n0AYZyooi0sBsbzCX5RmHfaWvUNrIZddRB1xI7WSbxilJotIxX08WiBHdzH56Hx43ZPAgvXV+/nTRbt5CuqCN1sIfGfUHzRFxEBPbKCIUgtGuL+lWfXRPjeT3g3z6XRivNjLQ9fwt0iPxsTHYl1AH1S4YtA+TpCvNeDbtdNen+Tt9C2A/GpStYMXfj8+0nZUE/hVfMp1hoVUu6Kb8uUPGyCiqY6oYSjwoWdofhCNSfgnJoSQn7zrbBJXkNYK/MqM/nN3h3bX68pb243ifximbXx8KrJ0tGnhS9cAfmDXzcpCe1tqNEw2CrYB8xjQjuA+xGCd+SP2ici514pC9N5zXif3YiO3HVU9GLGPAo9vqACLBcj//eU829lYgK9jHCA2XnAJ3lRBzMGKtp0hFdFZN4jdGM+FAOrZQ+t8jD86GptF8v5e71Gg5d95uu+cvwnN+KioOwUPZRW9pfdaX9QSQZe28bWgH7UnwhyW/lxfO8wzGUokGYu+JX7CIIj1Xz8l0OK7ws81p4JT/Vx6YHh0t5k+I9Z2deiUX3mTrISgw4ZMSIrE7i33tVDq67IswrdbSbMXS+X29iN6qb0P23+c/DLk7b/ExMbjEGtRi+x8FODoDY3oXwzcuqIxxmQvhEjMSAqzORV3wt0Q22PQlSp5BczZ3g0W86ZYWuuy5uDSN0Ft97esNcKCsO6VR7DSsLuyfUFcq8eNR0HgxyGXap94Iz38krCgMXnb6RIXtr96m8olrUrjFrohbp5s49Izj1vbKCHzVWBhSAdVDhNPNVYcaKfPEl5VnYyTjxfvLsSIb7jZMI+4bzSUKidLr2wRRY8MH3M7b91lJTeUXV8JGiZ1KzMU8UMAgbrzpewELXhAuhp+3k8GAdaGpEPOTrZRRxsK8QlasqAUKm0dslFGBX9J74OV2EDISRKk1TAl+vBTqZV5wuH9nSROoqE2WqibodXTcqLuYqElp+bT9RXulcESwTfWHMwY6MXdXWjodj+QpzUdg3qt6jWdvaGWBhqRNRYPu8rLDJvOKLWvvZlkiBliazsyUmfSn2QhkmBi3YTVxo56oNN6GA6Q0ABnbwE+aJLtlZgex8LXcKu3I8SaFyTDul9qY8X3xqOq84FobgmBWdrfrdsoJWVqdfMJ+qSjLC1Gj59fbCD0pCOdSvDAZ2FH/6WDWaYb0pRWDXmEqp8Cqwplkponpz4BUZqLVv2hGGKVL9o0QdtDigAFd0AzR5F7oHCzLRl2xXMkwy7FtAzmTrwJLp9SOBXQMEavcGZ1BUmtgJYFc48oqwfyBag5wojZMX4bc7wQDqS9EPmCudFoQZb7JNgLeeNRl2DJuY6lkAhkT6gjaJjTJxzfWKJW/fnP76uNXni+fIKyr7MaXSFv0xRvhL6WFwwRVpOJi13WraXY71bZk3pWemGhHoqxJ2kFZmx2YhNoiw68xL+G6rmdDpta90ceD1w7CjtWnO4oL5t+9QBnZYRQ2C2iDSGQLp0o+tBDuqGbPwA0nTedIIu3Y04TNNPzHilFiUWDrzioL2A9l2aM4ClpP0cTm5pnxjfN4ImOsxkWBHcWM+kUdUtgj7RutVCNObZEb8m92EduH1s7od2beohEQHpFsu4LqzaTgYLttFMZAF7DDtLGKWKHvaH3zb10FX3QTWGl64Kl+JXHhFB662+JaeLiNbA4XTayfwzxj3D9o3uAkcwZzpBZsEO6hLm32/IGbbSerbvi52U0odL4LalBhz4RUdLvdwDdqWNuk8DEV3v4AsYqYwmA5srF9N8fGBZkwv2CTY7dICb4JF2k4kgF2/zyQXHqy4MrooWOvKy1x4RY/fvcoCVK9VOg8L6Lpf0E6RJB1suTPW2wFV5bIQouUq2McfwvmidhrCV/ShI4C9G/WH3GJD+2h5Vml6F17RqnKvm4VJZCWE0YXrpQP0X5qG4B7apY28Y/gouA0KCtgr5lFLapkF2PX2sRRwq9Q1VX525ySnE68olt0zcKCyrI7EQFug96nAPpUCHrBG9KMaH8r7I4vUQ6mAfaV8wUhtf+GDem9Ygl0srxEoWkqxLydeMSvgnm8H/WGlMXbw9dc4gcoSIhcQAlR6h3Gza/BqlH8K2OVyMGtqPTg5DqggGXaVmB8YDOhwOPGKomJjg5SWADI7+1BKKhF9L2gdWBB8HHZ1Si3rTxWwh+o3TJQK3RkN+8xc7b5YQgzWjVfMgzmfSwBhN7t0HoxT3f8ERq2wpkGFMIO6u484Cl8B+8gSXCR32K3KzIt3u268fjReA9aTHezcC4Au0eCQfJPV0U4qzNSSAnbrXR0ytSy5wT472kzcrF+cbryiSnH24BiZrScOdshLECMTprekQUp+P7GSFLCP2NYh0idgn8WhxV6avmTOjVdM/kyIfDVe8RAQHr3aGSGPrjuJNQ9ySYzbbkdff/CPwt4caqC7fq+nkzuvxKabsgcunO/TZb/B3QX2QTw82Fag3kzI0jAH4cu0CHCz+eeF/Ad0e0/V3bhD5ubOK4qVKTm4zpnetNCPteRj9tvgkQLAMLtr0sjOOErXPGwifsCd2aS7euOonfcfgX3WIF9ofdB96cwrKvcpcToImKL7ZFWGi6IGvNIBHxDnw/QUNubqtpslaXA/elKzFg6cP2EoPgb7rLmlQ3EIT9cvz5VXdPsX4w8QJVWgoJasonSKjTAgv95CA75DJyfvvy7S/FSvaODeDDuOxZQLcD4Ie0OHMFP5J0tXXrfWJSEskeASKFkr8xAjksA6bGB/u2rwHRKtkoPZURDy55GZdTtOQ1MlIEcfhr1l6c5C7+9ceUUhaXu49JswYza/gv61EjywJ4dk7MB1v0jfuZImBCO+qNWpOTA4LVIxte0QAH0B7A2tTrJ5H7ryitJiM3bTK9nxthybbwd4SQQGWj1JTJJMNk1UR9r6Q9lt0CVep9g5XwR7w2koGK6ZK6/k4NixERvCzGVkdU2sqkaBtd1PBxBJJIRMvFf9pRe4PFSwQ3emJKa+DvaZGMO7uvJKtj/645Y7SQOlahx5QvVEq1FAk7dSHgwQ6rTjUBgOwkfjUwU7qowJGYovhV2IT3iOvNKjDcadME0mYDi2clZdXg0Top0PIPVJHAgLzjeGvmN8QwU7ugUTTk7+WtjpjT4XR14Fz3fMQZQkC5TsqOAwRuVRu+wF23uYTxHl0CcP4nYMk3jBXZ5195MEO66Aq7IlJU2DPa5WZXh6ZOnVN/g/ON5HR16FQo0Rt0fQQ2OaaYuC1LgrRpcOgKX5lPI7OAtI9ZhpmuE++JfIkHfFjIpZVpvkWmTBKSyPB4coHR7GoxeRiPTZkdeZcO6IdW1VTOy51iog5xaP2JwkiTpw3W9kgtDIAlp0htpycraPEnbUO0ZDCbVrO+kmCnnrWiwMZp8deZ3Rmjb74w2oy9ypF9QXkX7qkvCahNkwEwtsVaivw57rVfuFeHp98E+GnQQdDemkAzS5cYnJg6mm11RoylwceRXYmNtaGfRorEXXlv2dBJX+BoJhgW92IEME1pAH7ULZ0QoGJexEBPn6mYSGdSciJ8KOdeNaTwodp60jr23/aZlCYBGbFw5Eq/ufkRXddUP0NAt5swO47msw3ITOoZDXTdatkJvtJyQDO7FSI12wm2Q+O906EXYUttrlDrI0cuW1JeHE09Tkvu+EvNd7BpHCX9uzaxImzjLI73z4p2j54dcW6mCNlJHvpwgD+45EwAv1WJbkuKDut6kOHLNhh6MLfDJw5bUjAUbDjc4roepruNGZnlTlK9a7gAOXnB/UxWJoUuSK6BTlcpcPOe+jE9yRRbQ0MVX5NeTAsHnd/TgVdlyMyjPW6GFbZ1deO9qJQ8PdjvB69iFkBvYgN2j9tnj0dkcCDvyFkUw9obQFingOCrMmvslV1L0o5WDf0jT3gkfhzl5wOxV2kkb0Fc4YOWes+6ILrz1dpPxeumbh8OQiVWK7CadQyhcebIVTKBXHUDBVQ7Liox9bygzH7FUivU5ijyMU9x0E8iK6CErjtUImR+no3oiAU7FnYn7dnXl90VGu40ke4sa73TqXH6NomM6clW7NUQjnSq4llNeBYJNca6rgDye+RKX3HPgzZ8WCzM2DztyzWM/z7v9k2IWqAV+8OyouKXhvO2Y6r28qufotv3iEx+bE4upSho+UeyQTpsZZegJPmJbAVGZQpCOzmTB/LMLqZ7fycuiOZs6VZUl9dp+HXdJ3z+kUhMe2A+VJvq5riGtOj8lLou3aHBTdHpK9Wp+kM6bf8386r4DXpL2zcrpz1IYNdTBYuk+BiyNN2xPUpwAUB4tL8kpL/oDwdNjjEefJkyU7mVeg46g2OuKwGFHDrTwpVajcaYgNv9qP1wMWf2dOqK4RkO0cNaE565CBO4z4JHHRp/KKZHfXBRB7hvII3CNdgEDYBMrHnW3Hy1+j1uhMIuVdMSvrsdygn+2SeGVMKwUJK2Uir4Ri6TYCLUWq/Edo14lMW/MpbOFWnFtip5oahwL61pny6puhDpb7KGlgwinfbqtiJfk4jVeBrPbfdbRZqlFbWezm4g+bByKsKM8tsRgvv/2SdFCp5h44MQzJU0QhcCuzsFu2mTwMk3gVKQ4t9xFm2nakmI5E8r0SIhH7Vp0QPpoYzjtOsZqunfnaWx/N2yn3YpzAsbqmMl/34/MrZQKvMsWhxYrPjMXZYqCAkvJ2WyDiumuer7TTfdgTDpZLG57V3/FquHGVuaLDuahqrZeRezaQM41XllaBVuJcl1ZFeysmttOzYbcRA6a/vjbvrJpim4DfbtMWZ5ludN6JlwtBuzkD7Ad2vNZqozp56AZ9LK8qWp3EY716Sk/29XZeKDeyKaTLm1QE2thU/LF6yIIuydfE+sDCqkZaWtzfvnowo+ln/C6Mj5RQXk5ySKvpinQNuRuvOrqsT3kRLfx2uPwkylQbjTQUr25BcfWbIdk0W9P4W78V7w7bNC02YR/CRxElm57VR83ckyRsUYX/q5v1ymWeXv2+3eIRrlQAQHN6jHYCH+Kfz/fg2ZNmyPb+IsqXoe1Rq3a8/gfELfO2gTNXMAAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DE808B-AF02-4B4C-9493-A78D22C44988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="17945100"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5490,10 +5895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,10 +5929,10 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -5540,10 +5945,10 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -5556,10 +5961,10 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5572,10 +5977,10 @@
       <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -5588,10 +5993,10 @@
       <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -5604,10 +6009,10 @@
       <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5620,10 +6025,10 @@
       <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -5636,10 +6041,10 @@
       <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -5652,10 +6057,10 @@
       <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -5668,12 +6073,12 @@
       <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>51</v>
@@ -5684,301 +6089,334 @@
       <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="9">
-        <f>SUM(D3:D12)</f>
-        <v>45</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="9">
+        <f>SUM(D3:D13)</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="12"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="33" t="s">
+    <row r="18" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="13" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="15" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="16" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="16"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
+    <row r="27" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="16"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="16"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10" t="s">
+    <row r="29" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="16"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
+    <row r="31" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="16"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10" t="s">
+    <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="16"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="16"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
+    <row r="35" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="16"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="17" t="s">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="19"/>
+      <c r="C39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="28">
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
